--- a/nop-batch/nop-batch-dsl/src/test/resources/_vfs/test/batch/simple.record-file.xlsx
+++ b/nop-batch/nop-batch-dsl/src/test/resources/_vfs/test/batch/simple.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\nop-batch-dsl\src\test\resources\_vfs\test\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E17CDC-58A7-47C6-9066-8D31348C7472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF1776-7F36-4423-AA07-335DC34A736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件结构" sheetId="23" r:id="rId1"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLS-RP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>是否二进制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,35 +437,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
@@ -817,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -825,13 +825,13 @@
         <v>43</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -846,18 +846,18 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -865,20 +865,20 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -886,18 +886,18 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -905,37 +905,37 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1053,43 +1053,43 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="23"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1098,40 +1098,44 @@
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="26" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D17:O17"/>
@@ -1148,10 +1152,6 @@
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1191,8 +1191,8 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
     </row>
@@ -1209,8 +1209,8 @@
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="7"/>
       <c r="L2" s="1"/>
     </row>
@@ -1225,8 +1225,8 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
     </row>
@@ -1263,18 +1263,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="23"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>43</v>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
@@ -1445,27 +1445,27 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="23"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/nop-batch/nop-batch-dsl/src/test/resources/_vfs/test/batch/simple.record-file.xlsx
+++ b/nop-batch/nop-batch-dsl/src/test/resources/_vfs/test/batch/simple.record-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\nop-batch-dsl\src\test\resources\_vfs\test\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF1776-7F36-4423-AA07-335DC34A736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B92244-1393-4810-9058-E74117B899E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="11976" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件结构" sheetId="23" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>FLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,9 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,20 +413,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -446,6 +440,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,365 +790,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A15:O15"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A15:N15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,313 +1156,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="15"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="7"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="22"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+  <mergeCells count="13">
     <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
